--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H2">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I2">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J2">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>1467.087015725</v>
+        <v>71.217985730365</v>
       </c>
       <c r="R2">
-        <v>13203.783141525</v>
+        <v>640.9618715732851</v>
       </c>
       <c r="S2">
-        <v>0.1627460635372403</v>
+        <v>0.02415900942819558</v>
       </c>
       <c r="T2">
-        <v>0.1627460635372404</v>
+        <v>0.02415900942819558</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H3">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I3">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J3">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>3603.980829586111</v>
+        <v>1062.010912319716</v>
       </c>
       <c r="R3">
-        <v>32435.827466275</v>
+        <v>9558.098210877446</v>
       </c>
       <c r="S3">
-        <v>0.3997947543615648</v>
+        <v>0.3602619672608806</v>
       </c>
       <c r="T3">
-        <v>0.3997947543615648</v>
+        <v>0.3602619672608806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H4">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I4">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J4">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>1847.67505713125</v>
+        <v>403.131331577415</v>
       </c>
       <c r="R4">
-        <v>16629.07551418125</v>
+        <v>3628.181984196735</v>
       </c>
       <c r="S4">
-        <v>0.2049652399762101</v>
+        <v>0.1367527253193193</v>
       </c>
       <c r="T4">
-        <v>0.2049652399762102</v>
+        <v>0.1367527253193193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>53.74755</v>
       </c>
       <c r="I5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>296.2494009233999</v>
+        <v>48.80280525975001</v>
       </c>
       <c r="R5">
-        <v>2666.2446083106</v>
+        <v>439.22524733775</v>
       </c>
       <c r="S5">
-        <v>0.03286337027645432</v>
+        <v>0.01655519206702297</v>
       </c>
       <c r="T5">
-        <v>0.03286337027645433</v>
+        <v>0.01655519206702296</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>53.74755</v>
       </c>
       <c r="I6">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J6">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
-        <v>727.7531259294</v>
+        <v>727.7531259294002</v>
       </c>
       <c r="R6">
-        <v>6549.7781333646</v>
+        <v>6549.778133364601</v>
       </c>
       <c r="S6">
-        <v>0.08073069640889818</v>
+        <v>0.246872955622373</v>
       </c>
       <c r="T6">
-        <v>0.0807306964088982</v>
+        <v>0.2468729556223729</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>53.74755</v>
       </c>
       <c r="I7">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J7">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>373.10167897965</v>
+        <v>276.24959716725</v>
       </c>
       <c r="R7">
-        <v>3357.91511081685</v>
+        <v>2486.24637450525</v>
       </c>
       <c r="S7">
-        <v>0.04138870353444329</v>
+        <v>0.09371111179367837</v>
       </c>
       <c r="T7">
-        <v>0.04138870353444329</v>
+        <v>0.09371111179367836</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H8">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I8">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J8">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N8">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q8">
-        <v>148.162522899916</v>
+        <v>16.62844026602722</v>
       </c>
       <c r="R8">
-        <v>1333.462706099244</v>
+        <v>149.655962394245</v>
       </c>
       <c r="S8">
-        <v>0.01643588083546056</v>
+        <v>0.00564080324714738</v>
       </c>
       <c r="T8">
-        <v>0.01643588083546057</v>
+        <v>0.00564080324714738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H9">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I9">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J9">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q9">
-        <v>363.9694758872449</v>
+        <v>247.9652413119009</v>
       </c>
       <c r="R9">
-        <v>3275.725282985204</v>
+        <v>2231.687171807108</v>
       </c>
       <c r="S9">
-        <v>0.04037565516799921</v>
+        <v>0.08411631614238164</v>
       </c>
       <c r="T9">
-        <v>0.04037565516799922</v>
+        <v>0.08411631614238163</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H10">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I10">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J10">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q10">
-        <v>186.598473730291</v>
+        <v>94.12573520232166</v>
       </c>
       <c r="R10">
-        <v>1679.386263572619</v>
+        <v>847.1316168208949</v>
       </c>
       <c r="S10">
-        <v>0.02069963590172923</v>
+        <v>0.03192991911900112</v>
       </c>
       <c r="T10">
-        <v>0.02069963590172924</v>
+        <v>0.03192991911900112</v>
       </c>
     </row>
   </sheetData>
